--- a/Experiment Key.xlsx
+++ b/Experiment Key.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schle\Documents\GitHub\CoffeyBehavior_RatEdition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227EA9FD-45C3-4C8E-9B1A-E52BDEB201FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE48046-9B49-4427-B717-E991F74A093F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CD7F1C8E-C617-4CB6-9DA2-6C0677DD65A5}"/>
+    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11295" xr2:uid="{CD7F1C8E-C617-4CB6-9DA2-6C0677DD65A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="36">
   <si>
     <t>Run</t>
   </si>
@@ -74,12 +74,6 @@
     <t>Volume per dose (mL)</t>
   </si>
   <si>
-    <t>20-Mar-2025'</t>
-  </si>
-  <si>
-    <t>MagazineTraining</t>
-  </si>
-  <si>
     <t>24-Mar-2025'</t>
   </si>
   <si>
@@ -147,6 +141,9 @@
   </si>
   <si>
     <t>23-Apr-2025'</t>
+  </si>
+  <si>
+    <t>21-Mar-2025'</t>
   </si>
 </sst>
 </file>
@@ -291,7 +288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -338,31 +335,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -903,7 +879,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -945,25 +921,25 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="20">
-        <v>1</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="21">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="1">
         <v>0</v>
       </c>
-      <c r="E2" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="21">
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1">
         <v>0</v>
       </c>
-      <c r="G2" s="23">
+      <c r="G2" s="15">
         <v>0</v>
       </c>
     </row>
@@ -971,19 +947,19 @@
       <c r="A3" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="16">
-        <v>1</v>
-      </c>
-      <c r="E3" s="16" t="s">
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="1">
         <v>70</v>
       </c>
       <c r="G3" s="15">
@@ -994,19 +970,19 @@
       <c r="A4" s="10">
         <v>1</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="16">
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1">
         <v>2</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="1">
         <v>70</v>
       </c>
       <c r="G4" s="15">
@@ -1017,19 +993,19 @@
       <c r="A5" s="10">
         <v>1</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="16">
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1">
         <v>3</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="1">
         <v>70</v>
       </c>
       <c r="G5" s="15">
@@ -1040,19 +1016,19 @@
       <c r="A6" s="10">
         <v>1</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="16">
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1">
         <v>4</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="1">
         <v>70</v>
       </c>
       <c r="G6" s="15">
@@ -1063,19 +1039,19 @@
       <c r="A7" s="10">
         <v>1</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="16">
-        <v>5</v>
-      </c>
-      <c r="E7" s="16" t="s">
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="1">
         <v>70</v>
       </c>
       <c r="G7" s="15">
@@ -1086,19 +1062,19 @@
       <c r="A8" s="10">
         <v>1</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="16">
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="1">
         <v>6</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="1">
         <v>70</v>
       </c>
       <c r="G8" s="15">
@@ -1109,19 +1085,19 @@
       <c r="A9" s="10">
         <v>1</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="16">
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="1">
         <v>7</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="1">
         <v>70</v>
       </c>
       <c r="G9" s="15">
@@ -1132,19 +1108,19 @@
       <c r="A10" s="10">
         <v>1</v>
       </c>
-      <c r="B10" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="16">
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="1">
         <v>8</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="1">
         <v>70</v>
       </c>
       <c r="G10" s="15">
@@ -1155,19 +1131,19 @@
       <c r="A11" s="10">
         <v>1</v>
       </c>
-      <c r="B11" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="16">
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="1">
         <v>9</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="1">
         <v>70</v>
       </c>
       <c r="G11" s="15">
@@ -1178,19 +1154,19 @@
       <c r="A12" s="10">
         <v>1</v>
       </c>
-      <c r="B12" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="16">
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="1">
         <v>10</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="1">
         <v>70</v>
       </c>
       <c r="G12" s="15">
@@ -1201,19 +1177,19 @@
       <c r="A13" s="10">
         <v>1</v>
       </c>
-      <c r="B13" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="16">
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="1">
         <v>11</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="1">
         <v>70</v>
       </c>
       <c r="G13" s="15">
@@ -1224,19 +1200,19 @@
       <c r="A14" s="10">
         <v>1</v>
       </c>
-      <c r="B14" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="16">
+      <c r="B14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="1">
         <v>12</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="1">
         <v>70</v>
       </c>
       <c r="G14" s="15">
@@ -1247,19 +1223,19 @@
       <c r="A15" s="10">
         <v>1</v>
       </c>
-      <c r="B15" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="16">
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="1">
         <v>13</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="1">
         <v>70</v>
       </c>
       <c r="G15" s="15">
@@ -1270,19 +1246,19 @@
       <c r="A16" s="10">
         <v>1</v>
       </c>
-      <c r="B16" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="16">
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="1">
         <v>14</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F16" s="1">
         <v>70</v>
       </c>
       <c r="G16" s="15">
@@ -1293,19 +1269,19 @@
       <c r="A17" s="10">
         <v>1</v>
       </c>
-      <c r="B17" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="16">
+      <c r="B17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="1">
         <v>15</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F17" s="1">
         <v>70</v>
       </c>
       <c r="G17" s="15">
@@ -1316,19 +1292,19 @@
       <c r="A18" s="10">
         <v>1</v>
       </c>
-      <c r="B18" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="16">
+      <c r="B18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="1">
         <v>16</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="1">
         <v>0</v>
       </c>
       <c r="G18" s="15">
@@ -1339,19 +1315,19 @@
       <c r="A19" s="10">
         <v>1</v>
       </c>
-      <c r="B19" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="16">
+      <c r="B19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="1">
         <v>17</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F19" s="1">
         <v>0</v>
       </c>
       <c r="G19" s="15">
@@ -1362,19 +1338,19 @@
       <c r="A20" s="10">
         <v>1</v>
       </c>
-      <c r="B20" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="16">
+      <c r="B20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="1">
         <v>18</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F20" s="16">
+      <c r="F20" s="1">
         <v>0</v>
       </c>
       <c r="G20" s="15">
@@ -1385,19 +1361,19 @@
       <c r="A21" s="10">
         <v>1</v>
       </c>
-      <c r="B21" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="16">
+      <c r="B21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="1">
         <v>19</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F21" s="1">
         <v>0</v>
       </c>
       <c r="G21" s="15">
@@ -1408,19 +1384,19 @@
       <c r="A22" s="10">
         <v>1</v>
       </c>
-      <c r="B22" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="16">
+      <c r="B22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="1">
         <v>20</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F22" s="1">
         <v>0</v>
       </c>
       <c r="G22" s="15">
@@ -1428,60 +1404,60 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="20">
-        <v>1</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="17" t="s">
+      <c r="A23" s="10">
+        <v>1</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="1">
+        <v>21</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
+        <v>1</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="1">
+        <v>22</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="16">
+        <v>1</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="D23" s="24">
-        <v>21</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" s="24">
-        <v>0</v>
-      </c>
-      <c r="G23" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="20">
-        <v>1</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="24">
-        <v>22</v>
-      </c>
-      <c r="E24" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="F24" s="24">
-        <v>0</v>
-      </c>
-      <c r="G24" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="18">
-        <v>1</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>36</v>
       </c>
       <c r="D25" s="4">
         <v>23</v>
@@ -1492,7 +1468,7 @@
       <c r="F25" s="4">
         <v>0</v>
       </c>
-      <c r="G25" s="19">
+      <c r="G25" s="17">
         <v>0</v>
       </c>
     </row>

--- a/Experiment Key.xlsx
+++ b/Experiment Key.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schle\Documents\GitHub\CoffeyBehavior_RatEdition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE48046-9B49-4427-B717-E991F74A093F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D86393-DEE3-428D-84DF-4B3A5E19E481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11295" xr2:uid="{CD7F1C8E-C617-4CB6-9DA2-6C0677DD65A5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CD7F1C8E-C617-4CB6-9DA2-6C0677DD65A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="12">
   <si>
     <t>Run</t>
   </si>
@@ -72,78 +72,6 @@
   </si>
   <si>
     <t>Volume per dose (mL)</t>
-  </si>
-  <si>
-    <t>24-Mar-2025'</t>
-  </si>
-  <si>
-    <t>25-Mar-2025'</t>
-  </si>
-  <si>
-    <t>26-Mar-2025'</t>
-  </si>
-  <si>
-    <t>27-Mar-2025'</t>
-  </si>
-  <si>
-    <t>28-Mar-2025'</t>
-  </si>
-  <si>
-    <t>31-Mar-2025'</t>
-  </si>
-  <si>
-    <t>01-Apr-2025'</t>
-  </si>
-  <si>
-    <t>02-Apr-2025'</t>
-  </si>
-  <si>
-    <t>03-Apr-2025'</t>
-  </si>
-  <si>
-    <t>04-Apr-2025'</t>
-  </si>
-  <si>
-    <t>07-Apr-2025'</t>
-  </si>
-  <si>
-    <t>08-Apr-2025'</t>
-  </si>
-  <si>
-    <t>09-Apr-2025'</t>
-  </si>
-  <si>
-    <t>10-Apr-2025'</t>
-  </si>
-  <si>
-    <t>11-Apr-2025'</t>
-  </si>
-  <si>
-    <t>14-Apr-2025'</t>
-  </si>
-  <si>
-    <t>15-Apr-2025'</t>
-  </si>
-  <si>
-    <t>16-Apr-2025'</t>
-  </si>
-  <si>
-    <t>17-Apr-2025'</t>
-  </si>
-  <si>
-    <t>18-Apr-2025'</t>
-  </si>
-  <si>
-    <t>21-Apr-2025'</t>
-  </si>
-  <si>
-    <t>22-Apr-2025'</t>
-  </si>
-  <si>
-    <t>23-Apr-2025'</t>
-  </si>
-  <si>
-    <t>21-Mar-2025'</t>
   </si>
 </sst>
 </file>
@@ -288,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -339,6 +267,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -879,7 +810,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -927,8 +858,8 @@
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>35</v>
+      <c r="C2" s="18">
+        <v>45737</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
@@ -950,8 +881,8 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
+      <c r="C3" s="18">
+        <v>45740</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -973,8 +904,8 @@
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
+      <c r="C4" s="18">
+        <v>45741</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
@@ -996,8 +927,8 @@
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
+      <c r="C5" s="18">
+        <v>45742</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
@@ -1019,8 +950,8 @@
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>15</v>
+      <c r="C6" s="18">
+        <v>45743</v>
       </c>
       <c r="D6" s="1">
         <v>4</v>
@@ -1042,8 +973,8 @@
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>16</v>
+      <c r="C7" s="18">
+        <v>45744</v>
       </c>
       <c r="D7" s="1">
         <v>5</v>
@@ -1065,8 +996,8 @@
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>17</v>
+      <c r="C8" s="18">
+        <v>45747</v>
       </c>
       <c r="D8" s="1">
         <v>6</v>
@@ -1088,8 +1019,8 @@
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>18</v>
+      <c r="C9" s="18">
+        <v>45748</v>
       </c>
       <c r="D9" s="1">
         <v>7</v>
@@ -1111,8 +1042,8 @@
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>19</v>
+      <c r="C10" s="18">
+        <v>45749</v>
       </c>
       <c r="D10" s="1">
         <v>8</v>
@@ -1134,8 +1065,8 @@
       <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>20</v>
+      <c r="C11" s="18">
+        <v>45750</v>
       </c>
       <c r="D11" s="1">
         <v>9</v>
@@ -1157,8 +1088,8 @@
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>21</v>
+      <c r="C12" s="18">
+        <v>45751</v>
       </c>
       <c r="D12" s="1">
         <v>10</v>
@@ -1180,8 +1111,8 @@
       <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>22</v>
+      <c r="C13" s="18">
+        <v>45754</v>
       </c>
       <c r="D13" s="1">
         <v>11</v>
@@ -1203,8 +1134,8 @@
       <c r="B14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>23</v>
+      <c r="C14" s="18">
+        <v>45755</v>
       </c>
       <c r="D14" s="1">
         <v>12</v>
@@ -1226,8 +1157,8 @@
       <c r="B15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>24</v>
+      <c r="C15" s="18">
+        <v>45756</v>
       </c>
       <c r="D15" s="1">
         <v>13</v>
@@ -1249,8 +1180,8 @@
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>25</v>
+      <c r="C16" s="18">
+        <v>45757</v>
       </c>
       <c r="D16" s="1">
         <v>14</v>
@@ -1272,8 +1203,8 @@
       <c r="B17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>26</v>
+      <c r="C17" s="18">
+        <v>45758</v>
       </c>
       <c r="D17" s="1">
         <v>15</v>
@@ -1295,8 +1226,8 @@
       <c r="B18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>27</v>
+      <c r="C18" s="18">
+        <v>45761</v>
       </c>
       <c r="D18" s="1">
         <v>16</v>
@@ -1318,8 +1249,8 @@
       <c r="B19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>28</v>
+      <c r="C19" s="18">
+        <v>45762</v>
       </c>
       <c r="D19" s="1">
         <v>17</v>
@@ -1341,8 +1272,8 @@
       <c r="B20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>29</v>
+      <c r="C20" s="18">
+        <v>45763</v>
       </c>
       <c r="D20" s="1">
         <v>18</v>
@@ -1364,8 +1295,8 @@
       <c r="B21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>30</v>
+      <c r="C21" s="18">
+        <v>45764</v>
       </c>
       <c r="D21" s="1">
         <v>19</v>
@@ -1387,8 +1318,8 @@
       <c r="B22" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>31</v>
+      <c r="C22" s="18">
+        <v>45765</v>
       </c>
       <c r="D22" s="1">
         <v>20</v>
@@ -1410,8 +1341,8 @@
       <c r="B23" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>32</v>
+      <c r="C23" s="18">
+        <v>45768</v>
       </c>
       <c r="D23" s="1">
         <v>21</v>
@@ -1433,8 +1364,8 @@
       <c r="B24" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>33</v>
+      <c r="C24" s="18">
+        <v>45769</v>
       </c>
       <c r="D24" s="1">
         <v>22</v>
@@ -1456,8 +1387,8 @@
       <c r="B25" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>34</v>
+      <c r="C25" s="18">
+        <v>45770</v>
       </c>
       <c r="D25" s="4">
         <v>23</v>

--- a/Experiment Key.xlsx
+++ b/Experiment Key.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schle\Documents\GitHub\CoffeyBehavior_RatEdition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D86393-DEE3-428D-84DF-4B3A5E19E481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D2119F-4A83-4583-8FB2-478004858E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CD7F1C8E-C617-4CB6-9DA2-6C0677DD65A5}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CD7F1C8E-C617-4CB6-9DA2-6C0677DD65A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="14">
   <si>
     <t>Run</t>
   </si>
@@ -72,6 +72,12 @@
   </si>
   <si>
     <t>Volume per dose (mL)</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>4/23/2025</t>
   </si>
 </sst>
 </file>
@@ -216,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -270,6 +276,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -810,7 +828,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1380,33 +1398,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="16">
-        <v>1</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="18">
-        <v>45770</v>
-      </c>
-      <c r="D25" s="4">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="20">
         <v>23</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="20">
+        <v>0</v>
+      </c>
+      <c r="G25" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="16">
+        <v>1</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="18">
+        <v>45771</v>
+      </c>
+      <c r="D26" s="4">
+        <v>24</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="4">
-        <v>0</v>
-      </c>
-      <c r="G25" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="C26" s="2"/>
-      <c r="G26" s="15"/>
+      <c r="F26" s="4">
+        <v>0</v>
+      </c>
+      <c r="G26" s="17">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
